--- a/big-data/big-data-capstone/project/data/beer_n_Tsingtao Wheat Beer.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Tsingtao Wheat Beer.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dunklermessias(2,283)
+          <t>dunklermessias(2,305)
 🇩🇪Germany
 3.3October 18, 2020
 Slightly cluady, bright golden color and a niche white head. Not too bad wheat beer. Nice yeasty and banana taste with faint spicy flavours
@@ -922,7 +922,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vladeath(3,204)
+          <t>vladeath(3,218)
 🇷🇺Russia
 2.6July 3, 2020
 Turbid golden color with excellent foam.
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sparta(3,330)
+          <t>sparta(3,331)
 🇪🇪Pärnu, Estonia
 2.8January 12, 2020
 Õlle on selline jook, et iga uus kord kui klaasi või pudeli suule tõstad, siis leiad midagi uut, sõltuvalt tuhandest-miljonist pisiasjast, mis hetke olukorda mõjutavad. Seega piirdun iga õl…
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SVD(5,169)
+          <t>SVD(5,173)
 🇳🇱Nijmegen, Netherlands
 3.4December 8, 2019
 Hazy golden, small, aroma is wheat, banana, taste is the same, wheat, tart, ok wheat beer, bit watery.
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DeanF(10,049)
+          <t>DeanF(10,067)
 🇨🇦New Westminster, Canada
 2.5August 19, 2019
 Okay whiteish yellow body but with an odd sheen and little foam. Smells of banana and a bit of adjunct. Flavour is okay wheat notes simplified and missing something that better…
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Calisky(4,943)
+          <t>Calisky(4,947)
 🇫🇷ALSACE, France
 2.9July 29, 2019
 Jaune trouble bonne mousse blanche, depots.
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vinivini(8,602)
+          <t>vinivini(8,612)
 🇧🇾Homiel, Belarus
 1.9July 6, 2019
 Cloudy. Light yellow. Decent white head. Aroma: faint white bread, phenols, a tiny banana hint. Everlightest body. Really watery. Taste: diluted features mentioned above. Extremely…
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sharkydodson(5,350)
+          <t>sharkydodson(5,359)
 🇷🇺St. Petersburg, Russia
 3.4June 25, 2019
 the aroma is fruity and floral with hints of banana, esters, toffee, candy and some spices... the taste is fruity and floral with notes of banana, toffee, yeast, sweet citrus, esters and…
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kavu(9,376)
+          <t>Kavu(9,382)
 🇫🇮Helsinki, Finland
 2.5February 9, 2019
 0,33l bottle from K-Market Jätkäsaari, enjoyed @ home. Pours hazy yellow with a high head. Aroma is sweet malts with some wheat. Flavor is sweet watery malts with some wheat.…
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alex_leit(14,173)
+          <t>alex_leit(14,174)
 🇧🇾Minsk, Belarus
 2.5February 3, 2019
 Bottle 33 cl. Golden color, hazy, white foam. Aroma: yeast, light fruitiness, a bit of wheat and barley malt, slightly spicy. Taste: sparkling, sweetish wheat, slightly spicy, a faint hint of a…
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>laiti(10,879)
+          <t>laiti(10,881)
 🇫🇮Tampere, Finland
 3.1February 2, 2019
 33 cl bottle @ Härmälä. BBE 24.02.2019. Aroma has fruit candy and bubblegum. A bit fizzy palate. Flavour has candy, bubblegum and banana. Also hints of minerals. Better than I…
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mile(4,973)
+          <t>mile(4,976)
 🇫🇮Helsinki, Finland
 2.5January 6, 2019
 Bottle. Golden, cloudy, small to average and mostly diminishing head. Moderate, malty - wheaty and lightly sweetish aroma with faint fruitiness and light banana. Body is light to medium,…
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DraftPours23(2,784)
+          <t>DraftPours23(2,785)
 🇫🇷France
 2.9October 25, 2018
 Robe voilée, mousse assez moyenne, carbo fine et moyenne. Nez agréable de banane. En bouche, c'est acidulé et banané, typé weizen, mais quand même bien acidulé. Se laisse boire…
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>labeerinthum(6,515)
+          <t>labeerinthum(6,521)
 🇮🇹Milano, Italy
 2.9September 20, 2018
 Bottiglia. All'olfatto si esprimono sentori di cereali. L'intensità olfattiva è normale, permanendo in maniera sufficiente. Il cappello di schiuma resiste poco. La grandezza delle bollicine…
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CloakedDagger(7,677)
+          <t>CloakedDagger(7,688)
 2.9August 29, 2018
 Bottle 33 cl. Pours a hazy yellow with an almost absent white head. Sweet banana and yeast in the nose. Medium body, lowish carbonation, loads of banana, yeast and cloves - all…
 Show more
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jaghana(7,691)
+          <t>jaghana(7,692)
 🇫🇷Strasbourg (Alsace), France
 2.7July 20, 2018
 Bottle 33cl, a cloudy golden beer with medium head. Nose is on wheat and yeast, some heifeweizen yeast notes. Aroma is on a german heifeweizen but less malty and with medium to low…
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>thellgren(2,136)
+          <t>thellgren(2,141)
 🇫🇮Helsinki, Finland
 2.5July 15, 2018
 0.33 l bottle from K-Citymarket Ruoholahti, Helsinki. Pale yellow, cloudy, big head. Taste is very sweet, not banana, but caramel. Not bad, but don't expect Bavarian taste. At least this has no…
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hermod(14,397)
+          <t>Hermod(14,472)
 🇫🇮Vantaa, Finland
 3.0June 30, 2018
 330ml bottle. From Prisma.
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TET(5,408)
+          <t>TET(5,414)
 🇫🇮Kaarina, Finland
 3.2June 26, 2018
 A light yellow beer, a head is medium and white. Aroma has fruitness of banana with some sweetness, some spicyness of clove. Taste has some banana, low spicyness, some…
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>YantarCoast(3,965)
+          <t>YantarCoast(3,970)
 🇷🇺Moscow, Russia
 3.2May 26, 2018
 500ml bottle from Bliznetsy in Moscow. I assume this is not just a renamed version of Tsingtao White. Pours cloudy gold with a tall and long-lasting white head. Aroma is ripe bananas,…
